--- a/feedback_forms/current_versions/dairy_digester_operator_feedback_v005.xlsx
+++ b/feedback_forms/current_versions/dairy_digester_operator_feedback_v005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544784A4-15F0-42AF-AB17-FBF9FD743F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7242CBB-E97B-4788-B1D4-DB3908FE3D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3907" yWindow="853" windowWidth="19200" windowHeight="11387" tabRatio="705" activeTab="3" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -1620,9 +1620,6 @@
 Alignment shifted to left so the 'x' would be closer to the option.</t>
   </si>
   <si>
-    <t>Dairy Digester Spreadsheet Versions</t>
-  </si>
-  <si>
     <t>Notes about the the differences between spreadsheet versions</t>
   </si>
   <si>
@@ -1765,6 +1762,9 @@
   </si>
   <si>
     <t>jinja_manure_weeping_wall</t>
+  </si>
+  <si>
+    <t>Spreadsheet Versions</t>
   </si>
 </sst>
 </file>
@@ -3641,9 +3641,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4643,7 +4641,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4655,7 +4653,7 @@
   <sheetData>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
@@ -4663,7 +4661,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
@@ -4671,7 +4669,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
@@ -4679,12 +4677,12 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B9" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -4694,10 +4692,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" t="s">
         <v>288</v>
-      </c>
-      <c r="C11" t="s">
-        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
@@ -4705,49 +4703,49 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B12" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="66">
         <v>45819</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B13" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="66">
         <v>45838</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B14" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" s="66">
         <v>45841</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B16" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -5210,7 +5208,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D32" s="14">
         <v>45841</v>
@@ -6039,7 +6037,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7644,7 +7642,7 @@
         <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
         <v>195</v>
@@ -7661,7 +7659,7 @@
         <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -7675,7 +7673,7 @@
         <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -7689,7 +7687,7 @@
         <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -7703,7 +7701,7 @@
         <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -7717,7 +7715,7 @@
         <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -7731,7 +7729,7 @@
         <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -7745,7 +7743,7 @@
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -7759,7 +7757,7 @@
         <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -7773,7 +7771,7 @@
         <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -7787,7 +7785,7 @@
         <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -8109,7 +8107,7 @@
         <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -8123,7 +8121,7 @@
         <v>213</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -8137,7 +8135,7 @@
         <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -8151,7 +8149,7 @@
         <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -8165,7 +8163,7 @@
         <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -8179,7 +8177,7 @@
         <v>192</v>
       </c>
       <c r="D50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -8193,7 +8191,7 @@
         <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -8207,7 +8205,7 @@
         <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -8221,7 +8219,7 @@
         <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -8235,7 +8233,7 @@
         <v>219</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -8249,7 +8247,7 @@
         <v>183</v>
       </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -8266,7 +8264,7 @@
         <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -8280,7 +8278,7 @@
         <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -8294,7 +8292,7 @@
         <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -8308,7 +8306,7 @@
         <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -8322,7 +8320,7 @@
         <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -8339,7 +8337,7 @@
         <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -8356,7 +8354,7 @@
         <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -8373,7 +8371,7 @@
         <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -8387,7 +8385,7 @@
         <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -8401,7 +8399,7 @@
         <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -8505,17 +8503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -8750,7 +8737,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8759,18 +8746,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8789,10 +8776,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/feedback_forms/current_versions/dairy_digester_operator_feedback_v005.xlsx
+++ b/feedback_forms/current_versions/dairy_digester_operator_feedback_v005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7242CBB-E97B-4788-B1D4-DB3908FE3D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C9928-9E91-43FC-935D-2B0B214E1B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="334">
   <si>
     <t>CARB Methane Plume Detection</t>
   </si>
@@ -8126,6 +8126,9 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
+      <c r="F46" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B47" t="s">
@@ -8503,6 +8506,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -8737,27 +8760,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8776,25 +8798,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/dairy_digester_operator_feedback_v005.xlsx
+++ b/feedback_forms/current_versions/dairy_digester_operator_feedback_v005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C9928-9E91-43FC-935D-2B0B214E1B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB31801-DD57-4FF2-ACFD-45F737648F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -3641,7 +3641,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -8506,15 +8508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
@@ -8523,6 +8516,15 @@
     <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8761,20 +8763,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
     <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
